--- a/Daftar Paper dan Jumlah Sitasi.xlsx
+++ b/Daftar Paper dan Jumlah Sitasi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT PAPER UGI 2025\PAPER JUDI ONLINE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1505312-8C74-4C8F-A0B9-6660F81B11BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A52E70-4C76-4B11-8793-6505F769B2E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>No</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Judul Artikel</t>
   </si>
   <si>
-    <t>Penulis Utama</t>
-  </si>
-  <si>
     <t>Tahun</t>
   </si>
   <si>
@@ -48,22 +45,49 @@
     <t>Jumlah Sitasi (Google Scholar)</t>
   </si>
   <si>
-    <t>Tanggal Update</t>
-  </si>
-  <si>
-    <t>Online Gambling Addiction Among Teenagers in West Cilebut Village, Sukaraja District, Bogor Regency</t>
-  </si>
-  <si>
-    <t>Addiyansyah &amp; Rofi’ah</t>
-  </si>
-  <si>
-    <t>MANIFESTO Jurnal Gagasan Komunikasi, Politik, dan Budaya</t>
-  </si>
-  <si>
     <t>https://journal.awatarapublisher.com/index.php/manifesto/article/view/27</t>
   </si>
   <si>
     <t>24-Agustus-2025</t>
+  </si>
+  <si>
+    <t>Penulis</t>
+  </si>
+  <si>
+    <t>Link Google Scholar</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/scholar?hl=en&amp;as_sdt=0%2C5&amp;q=Kecanduan+Judi+Online+Di+Kalangan+Remaja+Desa+Cilebut+Barat+Kecamatan+Sukaraja+Kabupaten+Bogor&amp;btnG=</t>
+  </si>
+  <si>
+    <t>Kecanduan Judi Online Di Kalangan Remaja Desa Cilebut Barat Kecamatan Sukaraja Kabupaten Bogor</t>
+  </si>
+  <si>
+    <t>Wahfidz Addiyansyah &amp; Rofi’ah</t>
+  </si>
+  <si>
+    <t>Tanggal Update Sitasi</t>
+  </si>
+  <si>
+    <t>Jurnal Gagasan Komunikasi, Politik, dan Budaya (MANIFESTO)</t>
+  </si>
+  <si>
+    <t>Penulis 2</t>
+  </si>
+  <si>
+    <t>(Addiyansyah &amp; Rofi’ah, 2023)</t>
+  </si>
+  <si>
+    <t>Sudah Dicek</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Focus &amp; Scope</t>
+  </si>
+  <si>
+    <t>ideas; communication; politics; culture</t>
   </si>
 </sst>
 </file>
@@ -411,26 +435,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="36.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="33.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="32" style="1" customWidth="1"/>
-    <col min="8" max="8" width="40.28515625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="13" style="1" customWidth="1"/>
+    <col min="2" max="2" width="49.28515625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="36.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="33.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="33.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="32" style="1" customWidth="1"/>
+    <col min="9" max="9" width="40.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="69.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="39.5703125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="23" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -438,53 +465,78 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
+      <c r="I1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1">
         <v>2023</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1">
+        <v>86</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1">
-        <v>86</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>12</v>
+      <c r="K2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{21C3EE93-7B5D-4F19-B8C4-6CDE99099530}"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{21C3EE93-7B5D-4F19-B8C4-6CDE99099530}"/>
+    <hyperlink ref="J2" r:id="rId2" xr:uid="{B403CA4D-8A9B-4DBF-BD15-752C3773F161}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
